--- a/RAAL/Weather_data/GHI_2024-02-15.xlsx
+++ b/RAAL/Weather_data/GHI_2024-02-15.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2989.46</v>
+        <v>2989.58</v>
       </c>
       <c r="H2">
-        <v>6263.53</v>
+        <v>6263.94</v>
       </c>
       <c r="I2">
-        <v>738.25</v>
+        <v>738.2</v>
       </c>
       <c r="J2">
-        <v>2989.19</v>
+        <v>2989.5</v>
       </c>
       <c r="K2">
-        <v>5951.33</v>
+        <v>5952.75</v>
       </c>
       <c r="L2">
-        <v>733.66</v>
+        <v>733.59</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +881,7 @@
         <v>8.43</v>
       </c>
       <c r="L9">
-        <v>16.86</v>
+        <v>16.92</v>
       </c>
       <c r="M9">
         <v>7.42</v>
@@ -913,19 +913,19 @@
         <v>112.44</v>
       </c>
       <c r="I10">
-        <v>441.47</v>
+        <v>441.5</v>
       </c>
       <c r="J10">
         <v>49.97</v>
       </c>
       <c r="K10">
-        <v>112.41</v>
+        <v>112.44</v>
       </c>
       <c r="L10">
-        <v>403.48</v>
+        <v>403.82</v>
       </c>
       <c r="M10">
-        <v>45.68</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,19 +951,19 @@
         <v>9</v>
       </c>
       <c r="H11">
+        <v>254.39</v>
+      </c>
+      <c r="I11">
+        <v>639.47</v>
+      </c>
+      <c r="J11">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="K11">
         <v>254.38</v>
       </c>
-      <c r="I11">
-        <v>639.4299999999999</v>
-      </c>
-      <c r="J11">
-        <v>73.05</v>
-      </c>
-      <c r="K11">
-        <v>254.37</v>
-      </c>
       <c r="L11">
-        <v>618.74</v>
+        <v>618.77</v>
       </c>
       <c r="M11">
         <v>71.08</v>
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
+        <v>375.22</v>
+      </c>
+      <c r="I12">
+        <v>734.95</v>
+      </c>
+      <c r="J12">
+        <v>86.45</v>
+      </c>
+      <c r="K12">
         <v>375.21</v>
       </c>
-      <c r="I12">
-        <v>734.9</v>
-      </c>
-      <c r="J12">
-        <v>86.45999999999999</v>
-      </c>
-      <c r="K12">
-        <v>375.19</v>
-      </c>
       <c r="L12">
-        <v>719.2</v>
+        <v>719.22</v>
       </c>
       <c r="M12">
-        <v>85.48999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
+        <v>456.18</v>
+      </c>
+      <c r="I13">
+        <v>782.53</v>
+      </c>
+      <c r="J13">
+        <v>93.86</v>
+      </c>
+      <c r="K13">
         <v>456.17</v>
       </c>
-      <c r="I13">
-        <v>782.47</v>
-      </c>
-      <c r="J13">
-        <v>93.87</v>
-      </c>
-      <c r="K13">
-        <v>456.15</v>
-      </c>
       <c r="L13">
-        <v>760.47</v>
+        <v>760.48</v>
       </c>
       <c r="M13">
-        <v>97.19</v>
+        <v>97.20999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>487.53</v>
+        <v>487.55</v>
       </c>
       <c r="I14">
-        <v>798.5599999999999</v>
+        <v>798.61</v>
       </c>
       <c r="J14">
-        <v>96.5</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="K14">
-        <v>487.52</v>
+        <v>487.54</v>
       </c>
       <c r="L14">
         <v>773.0599999999999</v>
       </c>
       <c r="M14">
-        <v>102.17</v>
+        <v>102.19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>465.85</v>
+        <v>465.87</v>
       </c>
       <c r="I15">
-        <v>787.62</v>
+        <v>787.66</v>
       </c>
       <c r="J15">
-        <v>94.68000000000001</v>
+        <v>94.67</v>
       </c>
       <c r="K15">
-        <v>465.84</v>
+        <v>465.86</v>
       </c>
       <c r="L15">
-        <v>764.55</v>
+        <v>764.5599999999999</v>
       </c>
       <c r="M15">
-        <v>98.72</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>393.51</v>
+        <v>393.52</v>
       </c>
       <c r="I16">
-        <v>746.67</v>
+        <v>746.71</v>
       </c>
       <c r="J16">
         <v>88.19</v>
       </c>
       <c r="K16">
-        <v>393.45</v>
+        <v>393.52</v>
       </c>
       <c r="L16">
-        <v>729.74</v>
+        <v>729.99</v>
       </c>
       <c r="M16">
-        <v>88.02</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>279</v>
+        <v>279.01</v>
       </c>
       <c r="I17">
-        <v>662.34</v>
+        <v>662.38</v>
       </c>
       <c r="J17">
         <v>76.05</v>
       </c>
       <c r="K17">
-        <v>278.89</v>
+        <v>279.01</v>
       </c>
       <c r="L17">
-        <v>642.9</v>
+        <v>643.45</v>
       </c>
       <c r="M17">
-        <v>74.20999999999999</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,19 +1241,19 @@
         <v>138.84</v>
       </c>
       <c r="I18">
-        <v>491.9</v>
+        <v>491.94</v>
       </c>
       <c r="J18">
         <v>55.32</v>
       </c>
       <c r="K18">
-        <v>138.83</v>
+        <v>138.84</v>
       </c>
       <c r="L18">
-        <v>464.78</v>
+        <v>464.89</v>
       </c>
       <c r="M18">
-        <v>50.68</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,7 +1282,7 @@
         <v>18.11</v>
       </c>
       <c r="I19">
-        <v>115.34</v>
+        <v>115.36</v>
       </c>
       <c r="J19">
         <v>14.6</v>
@@ -1291,7 +1291,7 @@
         <v>18.11</v>
       </c>
       <c r="L19">
-        <v>57.56</v>
+        <v>57.58</v>
       </c>
       <c r="M19">
         <v>13.01</v>
